--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H2">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I2">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J2">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N2">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O2">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P2">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q2">
-        <v>14.5818059199187</v>
+        <v>21.345563326992</v>
       </c>
       <c r="R2">
-        <v>14.5818059199187</v>
+        <v>192.110069942928</v>
       </c>
       <c r="S2">
-        <v>0.005864643279366197</v>
+        <v>0.007696056286807236</v>
       </c>
       <c r="T2">
-        <v>0.005864643279366197</v>
+        <v>0.007696056286807237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H3">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I3">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J3">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N3">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P3">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q3">
-        <v>14.73687409780951</v>
+        <v>21.10843222664711</v>
       </c>
       <c r="R3">
-        <v>14.73687409780951</v>
+        <v>189.975890039824</v>
       </c>
       <c r="S3">
-        <v>0.00592701000899525</v>
+        <v>0.007610559630305364</v>
       </c>
       <c r="T3">
-        <v>0.00592701000899525</v>
+        <v>0.007610559630305365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H4">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I4">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J4">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N4">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O4">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P4">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q4">
-        <v>2.746885660106235</v>
+        <v>4.23152355133711</v>
       </c>
       <c r="R4">
-        <v>2.746885660106235</v>
+        <v>38.08371196203399</v>
       </c>
       <c r="S4">
-        <v>0.001104767448846914</v>
+        <v>0.001525658654736007</v>
       </c>
       <c r="T4">
-        <v>0.001104767448846914</v>
+        <v>0.001525658654736007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02665782183457</v>
+        <v>1.465847333333333</v>
       </c>
       <c r="H5">
-        <v>1.02665782183457</v>
+        <v>4.397542</v>
       </c>
       <c r="I5">
-        <v>0.01668511206397182</v>
+        <v>0.0219775736133859</v>
       </c>
       <c r="J5">
-        <v>0.01668511206397182</v>
+        <v>0.02197757361338591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N5">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O5">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P5">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q5">
-        <v>9.420174251981898</v>
+        <v>14.27085541405378</v>
       </c>
       <c r="R5">
-        <v>9.420174251981898</v>
+        <v>128.437698726484</v>
       </c>
       <c r="S5">
-        <v>0.003788691326763464</v>
+        <v>0.005145299041537299</v>
       </c>
       <c r="T5">
-        <v>0.003788691326763464</v>
+        <v>0.0051452990415373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H6">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I6">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J6">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N6">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O6">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P6">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q6">
-        <v>737.1386574038785</v>
+        <v>756.1253786115119</v>
       </c>
       <c r="R6">
-        <v>737.1386574038785</v>
+        <v>6805.128407503606</v>
       </c>
       <c r="S6">
-        <v>0.2964691271332447</v>
+        <v>0.2726179386570287</v>
       </c>
       <c r="T6">
-        <v>0.2964691271332447</v>
+        <v>0.2726179386570288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H7">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I7">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J7">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N7">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P7">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q7">
-        <v>744.977655473408</v>
+        <v>747.7254671038071</v>
       </c>
       <c r="R7">
-        <v>744.977655473408</v>
+        <v>6729.529203934264</v>
       </c>
       <c r="S7">
-        <v>0.2996218866472519</v>
+        <v>0.2695893846302653</v>
       </c>
       <c r="T7">
-        <v>0.2996218866472519</v>
+        <v>0.2695893846302653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H8">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I8">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J8">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N8">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O8">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P8">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q8">
-        <v>138.8604140428695</v>
+        <v>149.8935539130221</v>
       </c>
       <c r="R8">
-        <v>138.8604140428695</v>
+        <v>1349.041985217199</v>
       </c>
       <c r="S8">
-        <v>0.05584814380735239</v>
+        <v>0.05404351294329394</v>
       </c>
       <c r="T8">
-        <v>0.05584814380735239</v>
+        <v>0.05404351294329396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.8995502036242</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H9">
-        <v>51.8995502036242</v>
+        <v>155.774437</v>
       </c>
       <c r="I9">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699432</v>
       </c>
       <c r="J9">
-        <v>0.8434648748594795</v>
+        <v>0.7785131230699435</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N9">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O9">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P9">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q9">
-        <v>476.208134901252</v>
+        <v>505.5175067418638</v>
       </c>
       <c r="R9">
-        <v>476.208134901252</v>
+        <v>4549.657560676774</v>
       </c>
       <c r="S9">
-        <v>0.1915257172716306</v>
+        <v>0.1822622868393553</v>
       </c>
       <c r="T9">
-        <v>0.1915257172716306</v>
+        <v>0.1822622868393554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.60516304944298</v>
+        <v>0.05191500000000001</v>
       </c>
       <c r="H10">
-        <v>8.60516304944298</v>
+        <v>0.155745</v>
       </c>
       <c r="I10">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225787</v>
       </c>
       <c r="J10">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N10">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O10">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P10">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q10">
-        <v>122.2206803743149</v>
+        <v>0.7559824921200001</v>
       </c>
       <c r="R10">
-        <v>122.2206803743149</v>
+        <v>6.80384242908</v>
       </c>
       <c r="S10">
-        <v>0.04915582443582449</v>
+        <v>0.0002725664215120158</v>
       </c>
       <c r="T10">
-        <v>0.04915582443582449</v>
+        <v>0.0002725664215120159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>8.60516304944298</v>
+        <v>0.05191500000000001</v>
       </c>
       <c r="H11">
-        <v>8.60516304944298</v>
+        <v>0.155745</v>
       </c>
       <c r="I11">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225787</v>
       </c>
       <c r="J11">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225788</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N11">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P11">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q11">
-        <v>123.5204191248033</v>
+        <v>0.7475841679600002</v>
       </c>
       <c r="R11">
-        <v>123.5204191248033</v>
+        <v>6.728257511640002</v>
       </c>
       <c r="S11">
-        <v>0.04967856518342774</v>
+        <v>0.0002695384397970296</v>
       </c>
       <c r="T11">
-        <v>0.04967856518342774</v>
+        <v>0.0002695384397970296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>8.60516304944298</v>
+        <v>0.05191500000000001</v>
       </c>
       <c r="H12">
-        <v>8.60516304944298</v>
+        <v>0.155745</v>
       </c>
       <c r="I12">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225787</v>
       </c>
       <c r="J12">
-        <v>0.1398500130765487</v>
+        <v>0.0007783660059225788</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N12">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O12">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P12">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q12">
-        <v>23.02363891910207</v>
+        <v>0.149865228235</v>
       </c>
       <c r="R12">
-        <v>23.02363891910207</v>
+        <v>1.348787054115</v>
       </c>
       <c r="S12">
-        <v>0.009259856426220953</v>
+        <v>5.403330023496294E-05</v>
       </c>
       <c r="T12">
-        <v>0.009259856426220953</v>
+        <v>5.403330023496294E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05191500000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.155745</v>
+      </c>
+      <c r="I13">
+        <v>0.0007783660059225787</v>
+      </c>
+      <c r="J13">
+        <v>0.0007783660059225788</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.735567333333334</v>
+      </c>
+      <c r="N13">
+        <v>29.206702</v>
+      </c>
+      <c r="O13">
+        <v>0.2341158824922987</v>
+      </c>
+      <c r="P13">
+        <v>0.2341158824922987</v>
+      </c>
+      <c r="Q13">
+        <v>0.5054219781100001</v>
+      </c>
+      <c r="R13">
+        <v>4.54879780299</v>
+      </c>
+      <c r="S13">
+        <v>0.0001822278443785703</v>
+      </c>
+      <c r="T13">
+        <v>0.0001822278443785703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H14">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J14">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.561928</v>
+      </c>
+      <c r="N14">
+        <v>43.685784</v>
+      </c>
+      <c r="O14">
+        <v>0.3501777048818433</v>
+      </c>
+      <c r="P14">
+        <v>0.3501777048818433</v>
+      </c>
+      <c r="Q14">
+        <v>193.016020877544</v>
+      </c>
+      <c r="R14">
+        <v>1737.144187897896</v>
+      </c>
+      <c r="S14">
+        <v>0.06959114351649529</v>
+      </c>
+      <c r="T14">
+        <v>0.0695911435164953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H15">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J15">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.40015733333333</v>
+      </c>
+      <c r="N15">
+        <v>43.200472</v>
+      </c>
+      <c r="O15">
+        <v>0.3462875276490937</v>
+      </c>
+      <c r="P15">
+        <v>0.3462875276490937</v>
+      </c>
+      <c r="Q15">
+        <v>190.8717766281075</v>
+      </c>
+      <c r="R15">
+        <v>1717.845989652968</v>
+      </c>
+      <c r="S15">
+        <v>0.06881804494872602</v>
+      </c>
+      <c r="T15">
+        <v>0.06881804494872605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8.60516304944298</v>
-      </c>
-      <c r="H13">
-        <v>8.60516304944298</v>
-      </c>
-      <c r="I13">
-        <v>0.1398500130765487</v>
-      </c>
-      <c r="J13">
-        <v>0.1398500130765487</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.17557344972901</v>
-      </c>
-      <c r="N13">
-        <v>9.17557344972901</v>
-      </c>
-      <c r="O13">
-        <v>0.2270701756294696</v>
-      </c>
-      <c r="P13">
-        <v>0.2270701756294696</v>
-      </c>
-      <c r="Q13">
-        <v>78.95730560705813</v>
-      </c>
-      <c r="R13">
-        <v>78.95730560705813</v>
-      </c>
-      <c r="S13">
-        <v>0.03175576703107554</v>
-      </c>
-      <c r="T13">
-        <v>0.03175576703107554</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H16">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J16">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.886742333333333</v>
+      </c>
+      <c r="N16">
+        <v>8.660226999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.06941888497676431</v>
+      </c>
+      <c r="P16">
+        <v>0.06941888497676431</v>
+      </c>
+      <c r="Q16">
+        <v>38.26330678731254</v>
+      </c>
+      <c r="R16">
+        <v>344.3697610858129</v>
+      </c>
+      <c r="S16">
+        <v>0.01379568007849939</v>
+      </c>
+      <c r="T16">
+        <v>0.01379568007849939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.25483966666666</v>
+      </c>
+      <c r="H17">
+        <v>39.76451899999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1987309373107482</v>
+      </c>
+      <c r="J17">
+        <v>0.1987309373107483</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.735567333333334</v>
+      </c>
+      <c r="N17">
+        <v>29.206702</v>
+      </c>
+      <c r="O17">
+        <v>0.2341158824922987</v>
+      </c>
+      <c r="P17">
+        <v>0.2341158824922987</v>
+      </c>
+      <c r="Q17">
+        <v>129.0433840673709</v>
+      </c>
+      <c r="R17">
+        <v>1161.390456606338</v>
+      </c>
+      <c r="S17">
+        <v>0.04652606876702751</v>
+      </c>
+      <c r="T17">
+        <v>0.04652606876702751</v>
       </c>
     </row>
   </sheetData>
